--- a/IntelliPlugin/bin/Debug/IntelliPlugin.xlsx
+++ b/IntelliPlugin/bin/Debug/IntelliPlugin.xlsx
@@ -352,7 +352,7 @@
 </file>
 
 <file path=vstoDataStore/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{3663D886-84FE-42AC-8317-B9C5D13B400F}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{003FAFCB-829E-46C6-BA64-7C1A1CB1F35D}">
   <ds:schemaRefs/>
 </ds:datastoreItem>
 </file>
--- a/IntelliPlugin/bin/Debug/IntelliPlugin.xlsx
+++ b/IntelliPlugin/bin/Debug/IntelliPlugin.xlsx
@@ -352,7 +352,7 @@
 </file>
 
 <file path=vstoDataStore/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{003FAFCB-829E-46C6-BA64-7C1A1CB1F35D}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7E4B43EC-1701-4B4C-8154-EAE2997D50D7}">
   <ds:schemaRefs/>
 </ds:datastoreItem>
 </file>
--- a/IntelliPlugin/bin/Debug/IntelliPlugin.xlsx
+++ b/IntelliPlugin/bin/Debug/IntelliPlugin.xlsx
@@ -352,7 +352,7 @@
 </file>
 
 <file path=vstoDataStore/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7E4B43EC-1701-4B4C-8154-EAE2997D50D7}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{EFA40CDA-B3F9-469F-B910-14869AE818FA}">
   <ds:schemaRefs/>
 </ds:datastoreItem>
 </file>
--- a/IntelliPlugin/bin/Debug/IntelliPlugin.xlsx
+++ b/IntelliPlugin/bin/Debug/IntelliPlugin.xlsx
@@ -352,7 +352,7 @@
 </file>
 
 <file path=vstoDataStore/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{EFA40CDA-B3F9-469F-B910-14869AE818FA}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{FE369996-3BA1-44FD-B1BE-5058F700A976}">
   <ds:schemaRefs/>
 </ds:datastoreItem>
 </file>
--- a/IntelliPlugin/bin/Debug/IntelliPlugin.xlsx
+++ b/IntelliPlugin/bin/Debug/IntelliPlugin.xlsx
@@ -352,7 +352,7 @@
 </file>
 
 <file path=vstoDataStore/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{FE369996-3BA1-44FD-B1BE-5058F700A976}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{DB3F2372-FD35-4462-A4FE-5A6FFD56E7F2}">
   <ds:schemaRefs/>
 </ds:datastoreItem>
 </file>
--- a/IntelliPlugin/bin/Debug/IntelliPlugin.xlsx
+++ b/IntelliPlugin/bin/Debug/IntelliPlugin.xlsx
@@ -352,7 +352,7 @@
 </file>
 
 <file path=vstoDataStore/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{DB3F2372-FD35-4462-A4FE-5A6FFD56E7F2}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{EBEAB46E-9AB3-4DA1-82B0-06BAEC361BA6}">
   <ds:schemaRefs/>
 </ds:datastoreItem>
 </file>
--- a/IntelliPlugin/bin/Debug/IntelliPlugin.xlsx
+++ b/IntelliPlugin/bin/Debug/IntelliPlugin.xlsx
@@ -352,7 +352,7 @@
 </file>
 
 <file path=vstoDataStore/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{EBEAB46E-9AB3-4DA1-82B0-06BAEC361BA6}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{88273E91-3EB0-4B07-941F-8CF4EDBB6D52}">
   <ds:schemaRefs/>
 </ds:datastoreItem>
 </file>
--- a/IntelliPlugin/bin/Debug/IntelliPlugin.xlsx
+++ b/IntelliPlugin/bin/Debug/IntelliPlugin.xlsx
@@ -352,7 +352,7 @@
 </file>
 
 <file path=vstoDataStore/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{88273E91-3EB0-4B07-941F-8CF4EDBB6D52}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{72A6C1A2-EE5D-4234-9967-A387C7C1237F}">
   <ds:schemaRefs/>
 </ds:datastoreItem>
 </file>
--- a/IntelliPlugin/bin/Debug/IntelliPlugin.xlsx
+++ b/IntelliPlugin/bin/Debug/IntelliPlugin.xlsx
@@ -352,7 +352,7 @@
 </file>
 
 <file path=vstoDataStore/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{72A6C1A2-EE5D-4234-9967-A387C7C1237F}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{06E7ED03-6081-47DE-B6E7-B8A1785352F8}">
   <ds:schemaRefs/>
 </ds:datastoreItem>
 </file>
--- a/IntelliPlugin/bin/Debug/IntelliPlugin.xlsx
+++ b/IntelliPlugin/bin/Debug/IntelliPlugin.xlsx
@@ -352,7 +352,7 @@
 </file>
 
 <file path=vstoDataStore/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{06E7ED03-6081-47DE-B6E7-B8A1785352F8}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{CD783E14-FB1D-4B8C-8121-774FD0BD6838}">
   <ds:schemaRefs/>
 </ds:datastoreItem>
 </file>
--- a/IntelliPlugin/bin/Debug/IntelliPlugin.xlsx
+++ b/IntelliPlugin/bin/Debug/IntelliPlugin.xlsx
@@ -352,7 +352,7 @@
 </file>
 
 <file path=vstoDataStore/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{CD783E14-FB1D-4B8C-8121-774FD0BD6838}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7CC444AF-0F77-45C5-8454-032CBDC5974A}">
   <ds:schemaRefs/>
 </ds:datastoreItem>
 </file>
--- a/IntelliPlugin/bin/Debug/IntelliPlugin.xlsx
+++ b/IntelliPlugin/bin/Debug/IntelliPlugin.xlsx
@@ -352,7 +352,7 @@
 </file>
 
 <file path=vstoDataStore/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7CC444AF-0F77-45C5-8454-032CBDC5974A}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D6CC92FF-AFB2-4033-9F07-DEA73EC9A5D8}">
   <ds:schemaRefs/>
 </ds:datastoreItem>
 </file>
--- a/IntelliPlugin/bin/Debug/IntelliPlugin.xlsx
+++ b/IntelliPlugin/bin/Debug/IntelliPlugin.xlsx
@@ -352,7 +352,7 @@
 </file>
 
 <file path=vstoDataStore/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D6CC92FF-AFB2-4033-9F07-DEA73EC9A5D8}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{627F6939-3B4E-49C1-852F-12FE8E4FD5C9}">
   <ds:schemaRefs/>
 </ds:datastoreItem>
 </file>